--- a/SampleInputFiles/sample_InProgress_Iceland.xlsx
+++ b/SampleInputFiles/sample_InProgress_Iceland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\MyEngineering\golocalrefactor\SampleInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4960F449-6813-40BD-B8AD-8466FFCC46A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28D6171-D0E7-479E-A3CD-87AD86C70977}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3733" yWindow="0" windowWidth="24973" windowHeight="10153" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="116">
   <si>
     <t>Roadmap - Summary</t>
   </si>
@@ -332,12 +332,6 @@
     <t>WhiteSpace Ready</t>
   </si>
   <si>
-    <t>Teraco</t>
-  </si>
-  <si>
-    <t>Contoso</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -354,6 +348,37 @@
   </si>
   <si>
     <t>some more remarks</t>
+  </si>
+  <si>
+    <t>Cape Town (CPT 20)</t>
+  </si>
+  <si>
+    <t>Johannesburg (JNB 20)</t>
+  </si>
+  <si>
+    <t>Johannesburg (JNB 21)</t>
+  </si>
+  <si>
+    <t>JNB20: Teraco</t>
+  </si>
+  <si>
+    <t>JNB21: Contoso</t>
+  </si>
+  <si>
+    <t>JNB22: Fabrikam</t>
+  </si>
+  <si>
+    <t>CPT20: Alpha</t>
+  </si>
+  <si>
+    <t>1/2/2015
+2/2/2109</t>
+  </si>
+  <si>
+    <t>Cape Town (CPT20)</t>
+  </si>
+  <si>
+    <t>Johannesburg (JNB20)</t>
   </si>
 </sst>
 </file>
@@ -743,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,44 +901,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,6 +914,42 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1223,53 +1251,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.5">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="48" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="60" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="60"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16" ht="43" x14ac:dyDescent="0.5">
-      <c r="A3" s="59"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1346,16 +1374,16 @@
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="61"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1363,19 +1391,19 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A6" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1383,16 +1411,16 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1403,19 +1431,19 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="86" x14ac:dyDescent="0.5">
-      <c r="A8" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1423,10 +1451,10 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
@@ -1446,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4247387D-C518-4BCF-B5E6-22B2B586B50A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1506,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816A8A-C50A-46C0-B933-059E5986472F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1520,8 +1548,8 @@
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -1531,103 +1559,129 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="D2" s="16">
         <v>42370</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
+    <row r="3" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="D3" s="16">
         <v>42370</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="16">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="19">
-        <v>42006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19">
+        <v>42006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="19">
-        <v>42006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="49"/>
-      <c r="B6" s="20" t="s">
+      <c r="D6" s="19">
+        <v>42006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="58"/>
+      <c r="B7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="19">
-        <v>42006</v>
-      </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51" t="s">
+      <c r="C7" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="49"/>
-      <c r="B8" s="51"/>
       <c r="C8" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="49"/>
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="58"/>
+      <c r="B12" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="22" t="s">
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1637,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46CF6CC-FED6-4037-BDB6-B1421048F8AA}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1653,15 +1707,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="A1" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
@@ -1894,15 +1948,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
@@ -1950,7 +2004,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" s="38" t="s">
         <v>89</v>
       </c>
@@ -1973,7 +2027,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="38" t="s">
         <v>90</v>
       </c>
@@ -1996,7 +2050,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" s="38" t="s">
         <v>91</v>
       </c>
@@ -2019,7 +2073,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" s="38" t="s">
         <v>92</v>
       </c>
@@ -2042,7 +2096,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="38" t="s">
         <v>93</v>
       </c>
@@ -2065,7 +2119,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="38" t="s">
         <v>94</v>
       </c>
@@ -2195,7 +2249,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2223,11 +2277,11 @@
         <v>48</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="26" t="s">
         <v>49</v>
       </c>
@@ -2253,11 +2307,11 @@
         <v>48</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="53"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="26" t="s">
         <v>50</v>
       </c>
@@ -2283,11 +2337,11 @@
         <v>48</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="53"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="26" t="s">
         <v>51</v>
       </c>
@@ -2313,11 +2367,11 @@
         <v>48</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="53"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="26" t="s">
         <v>53</v>
       </c>
@@ -2343,11 +2397,11 @@
         <v>48</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="53"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="26" t="s">
         <v>55</v>
       </c>
@@ -2373,11 +2427,11 @@
         <v>48</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="53"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="26" t="s">
         <v>57</v>
       </c>
@@ -2403,11 +2457,11 @@
         <v>48</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="54"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="32" t="s">
         <v>17</v>
       </c>
@@ -2433,11 +2487,11 @@
         <v>48</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -2465,11 +2519,11 @@
         <v>48</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="53"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="26" t="s">
         <v>61</v>
       </c>
@@ -2495,11 +2549,11 @@
         <v>48</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="53"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="26" t="s">
         <v>63</v>
       </c>
@@ -2525,11 +2579,11 @@
         <v>48</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="53"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -2555,11 +2609,11 @@
         <v>48</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="53"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="26" t="s">
         <v>53</v>
       </c>
@@ -2585,11 +2639,11 @@
         <v>48</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="53"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="26" t="s">
         <v>55</v>
       </c>
@@ -2615,11 +2669,11 @@
         <v>48</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="26" t="s">
         <v>57</v>
       </c>
@@ -2645,11 +2699,11 @@
         <v>48</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="54"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="32" t="s">
         <v>17</v>
       </c>
@@ -2675,11 +2729,11 @@
         <v>65</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="62" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2707,11 +2761,11 @@
         <v>65</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="53"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="26" t="s">
         <v>67</v>
       </c>
@@ -2737,11 +2791,11 @@
         <v>65</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="53"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="26" t="s">
         <v>63</v>
       </c>
@@ -2767,11 +2821,11 @@
         <v>65</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="53"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="26" t="s">
         <v>51</v>
       </c>
@@ -2797,11 +2851,11 @@
         <v>65</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="53"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="26" t="s">
         <v>53</v>
       </c>
@@ -2827,11 +2881,11 @@
         <v>65</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="53"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="26" t="s">
         <v>55</v>
       </c>
@@ -2857,11 +2911,11 @@
         <v>65</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="53"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="26" t="s">
         <v>57</v>
       </c>
@@ -2887,11 +2941,11 @@
         <v>65</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="54"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -2917,11 +2971,11 @@
         <v>71</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="62" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -2949,11 +3003,11 @@
         <v>71</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="53"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="26" t="s">
         <v>51</v>
       </c>
@@ -2979,11 +3033,11 @@
         <v>71</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="53"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="26" t="s">
         <v>53</v>
       </c>
@@ -3009,11 +3063,11 @@
         <v>71</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="53"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="26" t="s">
         <v>55</v>
       </c>
@@ -3039,11 +3093,11 @@
         <v>71</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="55"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="35" t="s">
         <v>17</v>
       </c>
@@ -3069,11 +3123,11 @@
         <v>71</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="62" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="26" t="s">
@@ -3101,11 +3155,11 @@
         <v>71</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="53"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="26" t="s">
         <v>51</v>
       </c>
@@ -3131,11 +3185,11 @@
         <v>71</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="53"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="26" t="s">
         <v>53</v>
       </c>
@@ -3161,11 +3215,11 @@
         <v>71</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="53"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="26" t="s">
         <v>55</v>
       </c>
@@ -3195,7 +3249,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="55"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="35" t="s">
         <v>17</v>
       </c>
